--- a/target/test-classes/EurotechTestB5.xlsx
+++ b/target/test-classes/EurotechTestB5.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Username</t>
   </si>
@@ -93,12 +93,6 @@
     <t>gigi</t>
   </si>
   <si>
-    <t>caymaz@gmail.com</t>
-  </si>
-  <si>
-    <t>Feride Caymaz</t>
-  </si>
-  <si>
     <t>ensar1905@gmail.com</t>
   </si>
   <si>
@@ -151,6 +145,15 @@
   </si>
   <si>
     <t>emre@gmail.com</t>
+  </si>
+  <si>
+    <t>Feride@gmail.com</t>
+  </si>
+  <si>
+    <t>Test123456!</t>
+  </si>
+  <si>
+    <t>Feride</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,7 +535,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -631,87 +634,87 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8">
-        <v>123456</v>
+        <v>42</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
